--- a/regionseng/6/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/6/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A15" sqref="A15:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -853,19 +853,19 @@
         <v>2016</v>
       </c>
       <c r="B12" s="23">
-        <v>-1504.6948000000002</v>
+        <v>-1504.6947999999995</v>
       </c>
       <c r="C12" s="23">
-        <v>4998.1922000000004</v>
+        <v>4998.1921999999995</v>
       </c>
       <c r="D12" s="23">
-        <v>13211.025700000004</v>
+        <v>13211.025799999999</v>
       </c>
       <c r="E12" s="23">
-        <v>9204.6756000000005</v>
+        <v>9204.6754000000001</v>
       </c>
       <c r="F12" s="24">
-        <v>25909.198700000008</v>
+        <v>25909.1986</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
@@ -873,19 +873,19 @@
         <v>2017</v>
       </c>
       <c r="B13" s="15">
-        <v>-7415.8870999999872</v>
+        <v>-7415.8870999999936</v>
       </c>
       <c r="C13" s="15">
-        <v>9974.6136000000006</v>
+        <v>9974.6134000000038</v>
       </c>
       <c r="D13" s="15">
-        <v>17307.715999999997</v>
+        <v>17307.715700000004</v>
       </c>
       <c r="E13" s="15">
-        <v>37940.339600000007</v>
+        <v>37940.339199999995</v>
       </c>
       <c r="F13" s="16">
-        <v>57806.782100000019</v>
+        <v>57806.781200000012</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
@@ -893,19 +893,19 @@
         <v>2018</v>
       </c>
       <c r="B14" s="15">
-        <v>11358.941099999998</v>
+        <v>11358.941199999997</v>
       </c>
       <c r="C14" s="15">
-        <v>-8044.1356000000078</v>
+        <v>-8044.1356000000023</v>
       </c>
       <c r="D14" s="15">
-        <v>17064.697600000003</v>
+        <v>15670.057799999999</v>
       </c>
       <c r="E14" s="15">
-        <v>6631.5056000000077</v>
+        <v>6631.5051999999978</v>
       </c>
       <c r="F14" s="16">
-        <v>27011.008700000002</v>
+        <v>25616.368599999994</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
@@ -913,19 +913,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="15">
-        <v>10433.682300000008</v>
+        <v>10461.066599999998</v>
       </c>
       <c r="C15" s="15">
-        <v>14538.260300000005</v>
+        <v>14538.260000000002</v>
       </c>
       <c r="D15" s="15">
-        <v>10501.514699999982</v>
+        <v>10385.611899999996</v>
       </c>
       <c r="E15" s="15">
-        <v>9968.88490000001</v>
+        <v>9968.8844999999965</v>
       </c>
       <c r="F15" s="16">
-        <v>45442.342200000006</v>
+        <v>45353.822999999989</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
@@ -933,19 +933,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="15">
-        <v>-2001.5751999999977</v>
+        <v>-2001.5750999999991</v>
       </c>
       <c r="C16" s="15">
-        <v>-1884.3991999999996</v>
+        <v>-1884.3991999999976</v>
       </c>
       <c r="D16" s="15">
-        <v>-2310.386399999999</v>
+        <v>-2310.3864999999969</v>
       </c>
       <c r="E16" s="15">
-        <v>3196.4123999999983</v>
+        <v>3197.3294999999985</v>
       </c>
       <c r="F16" s="16">
-        <v>-2999.9483999999984</v>
+        <v>-2999.0312999999946</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1">
@@ -953,118 +953,116 @@
         <v>2021</v>
       </c>
       <c r="B17" s="15">
-        <v>-9147.2744000000039</v>
+        <v>-9136.6784999999963</v>
       </c>
       <c r="C17" s="15">
-        <v>2615.5848999999994</v>
+        <v>2615.6150000000016</v>
       </c>
       <c r="D17" s="15">
-        <v>13138.918500000003</v>
+        <v>13138.918399999999</v>
       </c>
       <c r="E17" s="15">
-        <v>-4191.4548999999997</v>
+        <v>-1241.5991000000013</v>
       </c>
       <c r="F17" s="16">
-        <v>2415.7740999999996</v>
+        <v>5376.2558000000026</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="12" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-8252.1836999999996</v>
+      </c>
+      <c r="C18" s="15">
+        <v>23614.662500000006</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1778.6258999999982</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2859.3078999999998</v>
+      </c>
+      <c r="F18" s="16">
+        <v>20000.412600000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12" customHeight="1">
+      <c r="A19" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="15">
+        <v>22603.895700000005</v>
+      </c>
+      <c r="C19" s="15">
+        <v>-5375.6468999999979</v>
+      </c>
+      <c r="D19" s="15">
+        <v>24594.134800000011</v>
+      </c>
+      <c r="E19" s="15">
+        <v>12050.928799999996</v>
+      </c>
+      <c r="F19" s="16">
+        <v>53873.31240000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15">
-        <v>10288.884500000004</v>
-      </c>
-      <c r="C18" s="15">
-        <v>33385.136399999996</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
-        <v>43674.020900000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
+      <c r="B20" s="15">
+        <v>10612.117900000001</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16">
+        <v>10612.117900000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1104,7 +1102,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1123,7 +1121,9 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="7"/>
+      <c r="A26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1140,31 +1140,69 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="42" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="48" customHeight="1">
+      <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/6/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/6/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -658,7 +658,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1015,11 +1015,13 @@
       <c r="B20" s="15">
         <v>10612.117900000001</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15">
+        <v>-1583.1714999999999</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16">
-        <v>10612.117900000001</v>
+        <v>9028.9464000000007</v>
       </c>
     </row>
     <row r="21" spans="1:16">
